--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-eg-name</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-eg-name</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -396,24 +396,6 @@
   </si>
   <si>
     <t>Extension.extension:operationalName.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:comment</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Extension.extension:comment.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:comment.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:comment.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:comment.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -720,7 +702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2748,20 +2730,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -2776,22 +2756,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -2833,30 +2815,30 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2867,7 +2849,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -2879,13 +2861,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2936,7 +2918,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -2945,531 +2927,12 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK26" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-eg-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
